--- a/data/strategies/平安场内策略结果.xlsx
+++ b/data/strategies/平安场内策略结果.xlsx
@@ -18,7 +18,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="177">
+  <si>
+    <t>广发中证全指可选消费ETF</t>
+  </si>
   <si>
     <t>华夏国证半导体芯片ETF</t>
   </si>
@@ -26,9 +29,6 @@
     <t>国泰中证800汽车与零部件ETF</t>
   </si>
   <si>
-    <t>广发中证全指可选消费ETF</t>
-  </si>
-  <si>
     <t>制造+消费</t>
   </si>
   <si>
@@ -59,73 +59,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>10.57%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>24.50%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>12.77%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>23.11%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>22.37%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>25.60%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>10.63%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>19.08%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>15.57%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>27.22%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>22.68%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>25.49%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -134,67 +131,67 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>159936.OF</t>
+  </si>
+  <si>
     <t>159995.OF</t>
   </si>
   <si>
     <t>516110.OF</t>
   </si>
   <si>
-    <t>159936.OF</t>
-  </si>
-  <si>
-    <t>17.49%</t>
-  </si>
-  <si>
-    <t>15.03%</t>
-  </si>
-  <si>
-    <t>-0.89%</t>
-  </si>
-  <si>
-    <t>38.65%</t>
-  </si>
-  <si>
-    <t>30.35%</t>
-  </si>
-  <si>
-    <t>5.87%</t>
-  </si>
-  <si>
-    <t>22.77%</t>
-  </si>
-  <si>
-    <t>13.02%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>38.12%</t>
-  </si>
-  <si>
-    <t>30.68%</t>
-  </si>
-  <si>
-    <t>11.76%</t>
-  </si>
-  <si>
-    <t>32.22%</t>
-  </si>
-  <si>
-    <t>29.86%</t>
-  </si>
-  <si>
-    <t>15.79%</t>
-  </si>
-  <si>
-    <t>35.03%</t>
-  </si>
-  <si>
-    <t>32.45%</t>
-  </si>
-  <si>
-    <t>19.87%</t>
+    <t>-1.30%</t>
+  </si>
+  <si>
+    <t>20.70%</t>
+  </si>
+  <si>
+    <t>12.00%</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>33.16%</t>
+  </si>
+  <si>
+    <t>24.68%</t>
+  </si>
+  <si>
+    <t>0.10%</t>
+  </si>
+  <si>
+    <t>32.52%</t>
+  </si>
+  <si>
+    <t>14.55%</t>
+  </si>
+  <si>
+    <t>14.90%</t>
+  </si>
+  <si>
+    <t>45.17%</t>
+  </si>
+  <si>
+    <t>35.10%</t>
+  </si>
+  <si>
+    <t>15.67%</t>
+  </si>
+  <si>
+    <t>34.23%</t>
+  </si>
+  <si>
+    <t>30.30%</t>
+  </si>
+  <si>
+    <t>19.60%</t>
+  </si>
+  <si>
+    <t>35.91%</t>
+  </si>
+  <si>
+    <t>32.18%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -209,40 +206,46 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>002594.SZ</t>
   </si>
   <si>
+    <t>600660.SH</t>
+  </si>
+  <si>
+    <t>600104.SH</t>
+  </si>
+  <si>
+    <t>300782.SZ</t>
+  </si>
+  <si>
+    <t>000625.SZ</t>
+  </si>
+  <si>
     <t>603501.SH</t>
   </si>
   <si>
-    <t>600660.SH</t>
-  </si>
-  <si>
-    <t>600104.SH</t>
-  </si>
-  <si>
-    <t>300782.SZ</t>
-  </si>
-  <si>
     <t>000333.SZ</t>
   </si>
   <si>
-    <t>000625.SZ</t>
+    <t>603986.SH</t>
+  </si>
+  <si>
+    <t>601633.SH</t>
   </si>
   <si>
     <t>601888.SH</t>
   </si>
   <si>
-    <t>603986.SH</t>
+    <t>002129.SZ</t>
   </si>
   <si>
     <t>600703.SH</t>
   </si>
   <si>
-    <t>601633.SH</t>
+    <t>600741.SH</t>
   </si>
   <si>
     <t>000651.SZ</t>
@@ -251,115 +254,118 @@
     <t>002049.SZ</t>
   </si>
   <si>
-    <t>600741.SH</t>
-  </si>
-  <si>
-    <t>002129.SZ</t>
+    <t>002371.SZ</t>
+  </si>
+  <si>
+    <t>600745.SH</t>
+  </si>
+  <si>
+    <t>601799.SH</t>
   </si>
   <si>
     <t>600733.SH</t>
   </si>
   <si>
-    <t>600745.SH</t>
-  </si>
-  <si>
-    <t>002371.SZ</t>
-  </si>
-  <si>
-    <t>600584.SH</t>
-  </si>
-  <si>
-    <t>601799.SH</t>
-  </si>
-  <si>
-    <t>6.20%</t>
-  </si>
-  <si>
-    <t>4.53%</t>
-  </si>
-  <si>
-    <t>4.04%</t>
-  </si>
-  <si>
-    <t>3.92%</t>
-  </si>
-  <si>
-    <t>3.00%</t>
-  </si>
-  <si>
-    <t>2.99%</t>
-  </si>
-  <si>
-    <t>2.92%</t>
-  </si>
-  <si>
-    <t>2.74%</t>
-  </si>
-  <si>
-    <t>2.63%</t>
-  </si>
-  <si>
-    <t>2.48%</t>
-  </si>
-  <si>
-    <t>2.42%</t>
-  </si>
-  <si>
-    <t>2.40%</t>
-  </si>
-  <si>
-    <t>2.13%</t>
-  </si>
-  <si>
-    <t>2.07%</t>
-  </si>
-  <si>
-    <t>1.89%</t>
-  </si>
-  <si>
-    <t>1.77%</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>1.54%</t>
-  </si>
-  <si>
-    <t>1.47%</t>
+    <t>601238.SH</t>
+  </si>
+  <si>
+    <t>786.59%</t>
+  </si>
+  <si>
+    <t>423.92%</t>
+  </si>
+  <si>
+    <t>416.86%</t>
+  </si>
+  <si>
+    <t>328.70%</t>
+  </si>
+  <si>
+    <t>322.74%</t>
+  </si>
+  <si>
+    <t>321.24%</t>
+  </si>
+  <si>
+    <t>307.36%</t>
+  </si>
+  <si>
+    <t>299.35%</t>
+  </si>
+  <si>
+    <t>287.89%</t>
+  </si>
+  <si>
+    <t>260.50%</t>
+  </si>
+  <si>
+    <t>258.41%</t>
+  </si>
+  <si>
+    <t>235.17%</t>
+  </si>
+  <si>
+    <t>224.17%</t>
+  </si>
+  <si>
+    <t>222.95%</t>
+  </si>
+  <si>
+    <t>207.07%</t>
+  </si>
+  <si>
+    <t>194.70%</t>
+  </si>
+  <si>
+    <t>191.19%</t>
+  </si>
+  <si>
+    <t>168.73%</t>
+  </si>
+  <si>
+    <t>156.45%</t>
+  </si>
+  <si>
+    <t>152.53%</t>
   </si>
   <si>
     <t>比亚迪</t>
   </si>
   <si>
+    <t>福耀玻璃</t>
+  </si>
+  <si>
+    <t>上汽集团</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>长安汽车</t>
+  </si>
+  <si>
     <t>韦尔股份</t>
   </si>
   <si>
-    <t>福耀玻璃</t>
-  </si>
-  <si>
-    <t>上汽集团</t>
-  </si>
-  <si>
-    <t>卓胜微</t>
-  </si>
-  <si>
     <t>美的集团</t>
   </si>
   <si>
-    <t>长安汽车</t>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>长城汽车</t>
   </si>
   <si>
     <t>中国中免</t>
   </si>
   <si>
-    <t>兆易创新</t>
+    <t>中环股份</t>
   </si>
   <si>
     <t>三安光电</t>
   </si>
   <si>
-    <t>长城汽车</t>
+    <t>华域汽车</t>
   </si>
   <si>
     <t>格力电器</t>
@@ -368,58 +374,58 @@
     <t>紫光国微</t>
   </si>
   <si>
-    <t>华域汽车</t>
-  </si>
-  <si>
-    <t>中环股份</t>
+    <t>北方华创</t>
+  </si>
+  <si>
+    <t>闻泰科技</t>
+  </si>
+  <si>
+    <t>星宇股份</t>
   </si>
   <si>
     <t>北汽蓝谷</t>
   </si>
   <si>
-    <t>闻泰科技</t>
-  </si>
-  <si>
-    <t>北方华创</t>
-  </si>
-  <si>
-    <t>长电科技</t>
-  </si>
-  <si>
-    <t>星宇股份</t>
+    <t>广汽集团</t>
   </si>
   <si>
     <t>汽车</t>
   </si>
   <si>
+    <t>汽车玻璃</t>
+  </si>
+  <si>
+    <t>整车业务</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
+    <t>整车</t>
+  </si>
+  <si>
     <t>CMOS图像传感器产品</t>
   </si>
   <si>
-    <t>汽车玻璃</t>
-  </si>
-  <si>
-    <t>整车业务</t>
-  </si>
-  <si>
-    <t>射频开关</t>
-  </si>
-  <si>
     <t>暖通空调</t>
   </si>
   <si>
-    <t>整车</t>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>销售汽车收入</t>
   </si>
   <si>
     <t>商品贸易-免税商品</t>
   </si>
   <si>
-    <t>存储芯片销售</t>
+    <t>新能源材料</t>
   </si>
   <si>
     <t>化合物半导体产品</t>
   </si>
   <si>
-    <t>销售汽车收入</t>
+    <t>内外饰件</t>
   </si>
   <si>
     <t>空调</t>
@@ -428,82 +434,76 @@
     <t>集成电路</t>
   </si>
   <si>
-    <t>内外饰件</t>
-  </si>
-  <si>
-    <t>新能源材料</t>
+    <t>电子工艺装备</t>
   </si>
   <si>
     <t>手机及配件</t>
   </si>
   <si>
-    <t>电子工艺装备</t>
-  </si>
-  <si>
-    <t>芯片封测</t>
-  </si>
-  <si>
     <t>车灯类</t>
   </si>
   <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>20.29%</t>
-  </si>
-  <si>
-    <t>-8.19%</t>
-  </si>
-  <si>
-    <t>60.36%</t>
-  </si>
-  <si>
-    <t>-22.20%</t>
-  </si>
-  <si>
-    <t>24.06%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>28.48%</t>
-  </si>
-  <si>
-    <t>17.00%</t>
-  </si>
-  <si>
-    <t>20.38%</t>
-  </si>
-  <si>
-    <t>-14.05%</t>
-  </si>
-  <si>
-    <t>14.89%</t>
-  </si>
-  <si>
-    <t>-5.25%</t>
-  </si>
-  <si>
-    <t>44.06%</t>
-  </si>
-  <si>
-    <t>71.97%</t>
-  </si>
-  <si>
-    <t>-4.98%</t>
-  </si>
-  <si>
-    <t>55.66%</t>
-  </si>
-  <si>
-    <t>-9.24%</t>
-  </si>
-  <si>
-    <t>15.16%</t>
+    <t>乘用车</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>15.33%</t>
+  </si>
+  <si>
+    <t>-10.69%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>38.97%</t>
+  </si>
+  <si>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>-24.87%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>32.81%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>-16.96%</t>
+  </si>
+  <si>
+    <t>-20.16%</t>
+  </si>
+  <si>
+    <t>27.29%</t>
+  </si>
+  <si>
+    <t>93.45%</t>
+  </si>
+  <si>
+    <t>1.90%</t>
+  </si>
+  <si>
+    <t>15.78%</t>
+  </si>
+  <si>
+    <t>52.13%</t>
+  </si>
+  <si>
+    <t>17.56%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -512,34 +512,43 @@
     <t>标签占比</t>
   </si>
   <si>
-    <t>家电家具</t>
-  </si>
-  <si>
-    <t>电子</t>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>家用电器</t>
   </si>
   <si>
     <t>商业贸易</t>
   </si>
   <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>44.95%</t>
-  </si>
-  <si>
-    <t>28.49%</t>
-  </si>
-  <si>
-    <t>9.71%</t>
-  </si>
-  <si>
-    <t>7.90%</t>
-  </si>
-  <si>
-    <t>5.24%</t>
-  </si>
-  <si>
-    <t>3.71%</t>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>29.40%</t>
+  </si>
+  <si>
+    <t>13.51%</t>
+  </si>
+  <si>
+    <t>5.30%</t>
+  </si>
+  <si>
+    <t>2.60%</t>
+  </si>
+  <si>
+    <t>2.58%</t>
+  </si>
+  <si>
+    <t>2.35%</t>
+  </si>
+  <si>
+    <t>1.91%</t>
   </si>
 </sst>
 </file>
@@ -903,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -960,16 +969,16 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.015851517431653</v>
+      </c>
+      <c r="C3">
         <v>1.028039681888989</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.022728363373248</v>
       </c>
-      <c r="D3">
-        <v>1.015851517431653</v>
-      </c>
       <c r="E3">
-        <v>1.022264852507874</v>
+        <v>1.0221429708633</v>
       </c>
       <c r="F3">
         <v>1.018168368380631</v>
@@ -983,16 +992,16 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.023275645849009</v>
+      </c>
+      <c r="C4">
         <v>1.079855702221858</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.021860567760362</v>
       </c>
-      <c r="D4">
-        <v>1.023275645849009</v>
-      </c>
       <c r="E4">
-        <v>1.042045889246524</v>
+        <v>1.041480088682796</v>
       </c>
       <c r="F4">
         <v>1.027111201157197</v>
@@ -1006,16 +1015,16 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.014296463506396</v>
+      </c>
+      <c r="C5">
         <v>1.063786176928753</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.019809446993545</v>
       </c>
-      <c r="D5">
-        <v>1.014296463506396</v>
-      </c>
       <c r="E5">
-        <v>1.032942250620757</v>
+        <v>1.032447353486533</v>
       </c>
       <c r="F5">
         <v>1.025290909062353</v>
@@ -1029,16 +1038,16 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.024780536744419</v>
+      </c>
+      <c r="C6">
         <v>1.072886775436583</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.044954665597853</v>
       </c>
-      <c r="D6">
-        <v>1.024780536744419</v>
-      </c>
       <c r="E6">
-        <v>1.047794120421388</v>
+        <v>1.047313058034467</v>
       </c>
       <c r="F6">
         <v>1.026858339183711</v>
@@ -1052,16 +1061,16 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.02879357913218</v>
+      </c>
+      <c r="C7">
         <v>1.069935229974584</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.068292471217046</v>
       </c>
-      <c r="D7">
-        <v>1.02879357913218</v>
-      </c>
       <c r="E7">
-        <v>1.055816374806603</v>
+        <v>1.055404958298179</v>
       </c>
       <c r="F7">
         <v>1.029917812005761</v>
@@ -1075,16 +1084,16 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.029245046400803</v>
+      </c>
+      <c r="C8">
         <v>1.087808477494466</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.097743968548195</v>
       </c>
-      <c r="D8">
-        <v>1.029245046400803</v>
-      </c>
       <c r="E8">
-        <v>1.071761257281288</v>
+        <v>1.071175622970351</v>
       </c>
       <c r="F8">
         <v>1.013866573688848</v>
@@ -1098,16 +1107,16 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.049410584399298</v>
+      </c>
+      <c r="C9">
         <v>1.1151922603919</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.100968630884336</v>
       </c>
-      <c r="D9">
-        <v>1.049410584399298</v>
-      </c>
       <c r="E9">
-        <v>1.088790509576845</v>
+        <v>1.088132692816919</v>
       </c>
       <c r="F9">
         <v>1.027660901099557</v>
@@ -1121,16 +1130,16 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.045949335339855</v>
+      </c>
+      <c r="C10">
         <v>1.136590964991391</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.096297285026672</v>
       </c>
-      <c r="D10">
-        <v>1.045949335339855</v>
-      </c>
       <c r="E10">
-        <v>1.093382312818027</v>
+        <v>1.092475896521512</v>
       </c>
       <c r="F10">
         <v>1.020386015005238</v>
@@ -1144,16 +1153,16 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.024028091296714</v>
+      </c>
+      <c r="C11">
         <v>1.132819545789948</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.057061047172691</v>
       </c>
-      <c r="D11">
-        <v>1.024028091296714</v>
-      </c>
       <c r="E11">
-        <v>1.071918061263486</v>
+        <v>1.070830146718554</v>
       </c>
       <c r="F11">
         <v>1.011430617658561</v>
@@ -1167,16 +1176,16 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.028342111863557</v>
+      </c>
+      <c r="C12">
         <v>1.110436992703124</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.056625612116048</v>
       </c>
-      <c r="D12">
-        <v>1.028342111863557</v>
-      </c>
       <c r="E12">
-        <v>1.065587926432332</v>
+        <v>1.064766977623936</v>
       </c>
       <c r="F12">
         <v>1.007914108598721</v>
@@ -1190,16 +1199,16 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.037020316027088</v>
+      </c>
+      <c r="C13">
         <v>1.176026891858654</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.05322523850705</v>
       </c>
-      <c r="D13">
-        <v>1.037020316027088</v>
-      </c>
       <c r="E13">
-        <v>1.089630176228208</v>
+        <v>1.088240110469892</v>
       </c>
       <c r="F13">
         <v>1.023142367573358</v>
@@ -1213,16 +1222,16 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.022523200401304</v>
+      </c>
+      <c r="C14">
         <v>1.157251783225383</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.035860591331532</v>
       </c>
-      <c r="D14">
-        <v>1.022523200401304</v>
-      </c>
       <c r="E14">
-        <v>1.072732257568466</v>
+        <v>1.071384971740226</v>
       </c>
       <c r="F14">
         <v>1.017160061629216</v>
@@ -1236,16 +1245,16 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.031101078505142</v>
+      </c>
+      <c r="C15">
         <v>1.167582192342379</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.059142054943396</v>
       </c>
-      <c r="D15">
-        <v>1.031101078505142</v>
-      </c>
       <c r="E15">
-        <v>1.086758179434426</v>
+        <v>1.085393368296054</v>
       </c>
       <c r="F15">
         <v>1.026434284942462</v>
@@ -1259,16 +1268,16 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.04484574868322</v>
+      </c>
+      <c r="C16">
         <v>1.168320078707879</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.078399462281797</v>
       </c>
-      <c r="D16">
-        <v>1.04484574868322</v>
-      </c>
       <c r="E16">
-        <v>1.097899746379134</v>
+        <v>1.096665003078888</v>
       </c>
       <c r="F16">
         <v>1.04011081950838</v>
@@ -1282,16 +1291,16 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.048758465011287</v>
+      </c>
+      <c r="C17">
         <v>1.154054275641551</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.088197609056373</v>
       </c>
-      <c r="D17">
-        <v>1.048758465011287</v>
-      </c>
       <c r="E17">
-        <v>1.097573958160455</v>
+        <v>1.096521000054152</v>
       </c>
       <c r="F17">
         <v>1.042515364113389</v>
@@ -1305,16 +1314,16 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.05472786556308</v>
+      </c>
+      <c r="C18">
         <v>1.139214560957613</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.103486027045141</v>
       </c>
-      <c r="D18">
-        <v>1.05472786556308</v>
-      </c>
       <c r="E18">
-        <v>1.099543535286301</v>
+        <v>1.098698668332356</v>
       </c>
       <c r="F18">
         <v>1.043693292561303</v>
@@ -1328,16 +1337,16 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.033860045146727</v>
+      </c>
+      <c r="C19">
         <v>1.113634500286956</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.080071013332571</v>
       </c>
-      <c r="D19">
-        <v>1.033860045146727</v>
-      </c>
       <c r="E19">
-        <v>1.076232979395733</v>
+        <v>1.075435234844331</v>
       </c>
       <c r="F19">
         <v>1.026047924411546</v>
@@ -1351,16 +1360,16 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.038525206922498</v>
+      </c>
+      <c r="C20">
         <v>1.107731409362958</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1.081326315162532</v>
       </c>
-      <c r="D20">
-        <v>1.038525206922498</v>
-      </c>
       <c r="E20">
-        <v>1.076179681471466</v>
+        <v>1.075487619447061</v>
       </c>
       <c r="F20">
         <v>1.02984870687015</v>
@@ -1374,16 +1383,16 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.011336844745423</v>
+      </c>
+      <c r="C21">
         <v>1.06075264409281</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1.044105364654039</v>
       </c>
-      <c r="D21">
-        <v>1.011336844745423</v>
-      </c>
       <c r="E21">
-        <v>1.038951828093378</v>
+        <v>1.038457670099904</v>
       </c>
       <c r="F21">
         <v>1.007424090364388</v>
@@ -1397,16 +1406,16 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.006621519939804</v>
+      </c>
+      <c r="C22">
         <v>1.03976387636304</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1.036451669991755</v>
       </c>
-      <c r="D22">
-        <v>1.006621519939804</v>
-      </c>
       <c r="E22">
-        <v>1.027733870640848</v>
+        <v>1.027402447076616</v>
       </c>
       <c r="F22">
         <v>0.9967065120596316</v>
@@ -1420,16 +1429,16 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.018008527715074</v>
+      </c>
+      <c r="C23">
         <v>1.045502992539149</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.032151528349045</v>
       </c>
-      <c r="D23">
-        <v>1.018008527715074</v>
-      </c>
       <c r="E23">
-        <v>1.03202383596447</v>
+        <v>1.031748891316229</v>
       </c>
       <c r="F23">
         <v>1.004110184997589</v>
@@ -1443,16 +1452,16 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.049260095309757</v>
+      </c>
+      <c r="C24">
         <v>1.054603591046979</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1.089845636604087</v>
       </c>
-      <c r="D24">
-        <v>1.049260095309757</v>
-      </c>
       <c r="E24">
-        <v>1.064470112487541</v>
+        <v>1.064416677530169</v>
       </c>
       <c r="F24">
         <v>1.013770768841751</v>
@@ -1466,16 +1475,16 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.043140205668422</v>
+      </c>
+      <c r="C25">
         <v>1.015741575797327</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.079667228946712</v>
       </c>
-      <c r="D25">
-        <v>1.043140205668422</v>
-      </c>
       <c r="E25">
-        <v>1.045878589194086</v>
+        <v>1.046152575492796</v>
       </c>
       <c r="F25">
         <v>1.00506038061224</v>
@@ -1489,16 +1498,16 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.02979683972912</v>
+      </c>
+      <c r="C26">
         <v>1.014101828318439</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.070023653275577</v>
       </c>
-      <c r="D26">
-        <v>1.02979683972912</v>
-      </c>
       <c r="E26">
-        <v>1.037735384319819</v>
+        <v>1.037892334433926</v>
       </c>
       <c r="F26">
         <v>0.9939815709167896</v>
@@ -1512,16 +1521,16 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.022222222222222</v>
+      </c>
+      <c r="C27">
         <v>0.9888497171435598</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.035722143480189</v>
       </c>
-      <c r="D27">
-        <v>1.022222222222222</v>
-      </c>
       <c r="E27">
-        <v>1.015330544510606</v>
+        <v>1.015664269561393</v>
       </c>
       <c r="F27">
         <v>0.9800160512383169</v>
@@ -1535,16 +1544,16 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.032054176072235</v>
+      </c>
+      <c r="C28">
         <v>1.017709272771993</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.051789351486931</v>
       </c>
-      <c r="D28">
-        <v>1.032054176072235</v>
-      </c>
       <c r="E28">
-        <v>1.033689516837002</v>
+        <v>1.033832965870005</v>
       </c>
       <c r="F28">
         <v>0.9930973392952219</v>
@@ -1558,16 +1567,16 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.052821670428894</v>
+      </c>
+      <c r="C29">
         <v>1.032057063212265</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.072590956442874</v>
       </c>
-      <c r="D29">
-        <v>1.052821670428894</v>
-      </c>
       <c r="E29">
-        <v>1.052285568359854</v>
+        <v>1.05249321443202</v>
       </c>
       <c r="F29">
         <v>1.014256075362292</v>
@@ -1581,16 +1590,16 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.075545522949586</v>
+      </c>
+      <c r="C30">
         <v>1.040091825858818</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.091414025058108</v>
       </c>
-      <c r="D30">
-        <v>1.075545522949586</v>
-      </c>
       <c r="E30">
-        <v>1.068727871634537</v>
+        <v>1.069082408605445</v>
       </c>
       <c r="F30">
         <v>1.024824449396979</v>
@@ -1604,16 +1613,16 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.069525959367946</v>
+      </c>
+      <c r="C31">
         <v>1.065507911781586</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.092005818718424</v>
       </c>
-      <c r="D31">
-        <v>1.069525959367946</v>
-      </c>
       <c r="E31">
-        <v>1.075578176774241</v>
+        <v>1.075618357250105</v>
       </c>
       <c r="F31">
         <v>1.038860644782327</v>
@@ -1627,16 +1636,16 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.071281665412591</v>
+      </c>
+      <c r="C32">
         <v>1.060342707223088</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.081714619796377</v>
       </c>
-      <c r="D32">
-        <v>1.071281665412591</v>
-      </c>
       <c r="E32">
-        <v>1.071005294574809</v>
+        <v>1.071114684156704</v>
       </c>
       <c r="F32">
         <v>1.052829305603327</v>
@@ -1650,16 +1659,16 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.030850263355907</v>
+      </c>
+      <c r="C33">
         <v>1.033122899073543</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1.033261125076718</v>
       </c>
-      <c r="D33">
-        <v>1.030850263355907</v>
-      </c>
       <c r="E33">
-        <v>1.032418543867771</v>
+        <v>1.032395817510594</v>
       </c>
       <c r="F33">
         <v>1.045538713796369</v>
@@ -1673,16 +1682,16 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.018610484073238</v>
+      </c>
+      <c r="C34">
         <v>1.021480691973436</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.007561411983614</v>
       </c>
-      <c r="D34">
-        <v>1.018610484073238</v>
-      </c>
       <c r="E34">
-        <v>1.015940160969729</v>
+        <v>1.015911458890727</v>
       </c>
       <c r="F34">
         <v>1.041481928221752</v>
@@ -1696,16 +1705,16 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.007424128417356</v>
+      </c>
+      <c r="C35">
         <v>1.029597441993933</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.9763674236757957</v>
       </c>
-      <c r="D35">
-        <v>1.007424128417356</v>
-      </c>
       <c r="E35">
-        <v>1.004714342468677</v>
+        <v>1.004492609332912</v>
       </c>
       <c r="F35">
         <v>1.026555218929781</v>
@@ -1719,16 +1728,16 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.007975921745673</v>
+      </c>
+      <c r="C36">
         <v>1.02098876772977</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.9720005129410668</v>
       </c>
-      <c r="D36">
-        <v>1.007975921745673</v>
-      </c>
       <c r="E36">
-        <v>1.000528404474746</v>
+        <v>1.000398276014905</v>
       </c>
       <c r="F36">
         <v>1.020737822968348</v>
@@ -1742,16 +1751,16 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>0.9890644594933534</v>
+      </c>
+      <c r="C37">
         <v>1.005985078297942</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.9466977083162603</v>
       </c>
-      <c r="D37">
-        <v>0.9890644594933534</v>
-      </c>
       <c r="E37">
-        <v>0.980836441998473</v>
+        <v>0.9806672358104271</v>
       </c>
       <c r="F37">
         <v>0.9995665223311676</v>
@@ -1765,16 +1774,16 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.013844996237773</v>
+      </c>
+      <c r="C38">
         <v>1.043125358694761</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.9720432222799559</v>
       </c>
-      <c r="D38">
-        <v>1.013844996237773</v>
-      </c>
       <c r="E38">
-        <v>1.010005734067069</v>
+        <v>1.009712930442499</v>
       </c>
       <c r="F38">
         <v>1.019055741144727</v>
@@ -1788,16 +1797,16 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>1.00887885628292</v>
+      </c>
+      <c r="C39">
         <v>1.054111666803312</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.9692999218397649</v>
       </c>
-      <c r="D39">
-        <v>1.00887885628292</v>
-      </c>
       <c r="E39">
-        <v>1.011196963493612</v>
+        <v>1.010744635388408</v>
       </c>
       <c r="F39">
         <v>1.010400322909452</v>
@@ -1811,16 +1820,16 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.018459994983697</v>
+      </c>
+      <c r="C40">
         <v>1.05517750266459</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.9780692073138362</v>
       </c>
-      <c r="D40">
-        <v>1.018459994983697</v>
-      </c>
       <c r="E40">
-        <v>1.017614987664146</v>
+        <v>1.017247812587337</v>
       </c>
       <c r="F40">
         <v>1.024758485403896</v>
@@ -1834,16 +1843,16 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>0.9931778279408076</v>
+      </c>
+      <c r="C41">
         <v>1.017791260145938</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.9442258099947074</v>
       </c>
-      <c r="D41">
-        <v>0.9931778279408076</v>
-      </c>
       <c r="E41">
-        <v>0.9853922289683388</v>
+        <v>0.9851460946462876</v>
       </c>
       <c r="F41">
         <v>1.005478152568434</v>
@@ -1857,16 +1866,16 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>0.9967895660897919</v>
+      </c>
+      <c r="C42">
         <v>1.008936623759941</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.951029047796362</v>
       </c>
-      <c r="D42">
-        <v>0.9967895660897919</v>
-      </c>
       <c r="E42">
-        <v>0.9858185946608107</v>
+        <v>0.9856971240841091</v>
       </c>
       <c r="F42">
         <v>1.005715308829281</v>
@@ -1880,16 +1889,16 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.965237020316027</v>
+      </c>
+      <c r="C43">
         <v>0.9645814544560138</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.9067932552086894</v>
       </c>
-      <c r="D43">
-        <v>0.965237020316027</v>
-      </c>
       <c r="E43">
-        <v>0.9457276854382011</v>
+        <v>0.9457342410968013</v>
       </c>
       <c r="F43">
         <v>0.9826137761087841</v>
@@ -1903,16 +1912,16 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.9509405568096313</v>
+      </c>
+      <c r="C44">
         <v>0.9153070427154218</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.8846548503288518</v>
       </c>
-      <c r="D44">
-        <v>0.9509405568096313</v>
-      </c>
       <c r="E44">
-        <v>0.9169508788789429</v>
+        <v>0.917307214019885</v>
       </c>
       <c r="F44">
         <v>0.9593049279814547</v>
@@ -1926,16 +1935,16 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.9599699021820918</v>
+      </c>
+      <c r="C45">
         <v>0.9161269164548659</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.8972590745517847</v>
       </c>
-      <c r="D45">
-        <v>0.9599699021820918</v>
-      </c>
       <c r="E45">
-        <v>0.9243687139168337</v>
+        <v>0.924807143774106</v>
       </c>
       <c r="F45">
         <v>0.952121135020441</v>
@@ -1949,16 +1958,16 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9728618008527715</v>
+      </c>
+      <c r="C46">
         <v>0.9453144215790769</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.9205758234182384</v>
       </c>
-      <c r="D46">
-        <v>0.9728618008527715</v>
-      </c>
       <c r="E46">
-        <v>0.9462413193463194</v>
+        <v>0.9465167931390563</v>
       </c>
       <c r="F46">
         <v>0.9759262836671583</v>
@@ -1972,16 +1981,16 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>0.9780285929270127</v>
+      </c>
+      <c r="C47">
         <v>0.9303107321472494</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.9234232159553034</v>
       </c>
-      <c r="D47">
-        <v>0.9780285929270127</v>
-      </c>
       <c r="E47">
-        <v>0.9437847458612292</v>
+        <v>0.9442619244690268</v>
       </c>
       <c r="F47">
         <v>0.9772691220977807</v>
@@ -1995,16 +2004,16 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.9645849009280161</v>
+      </c>
+      <c r="C48">
         <v>0.8900549315405427</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.903489132528878</v>
       </c>
-      <c r="D48">
-        <v>0.9645849009280161</v>
-      </c>
       <c r="E48">
-        <v>0.9190831077645596</v>
+        <v>0.9198284074584344</v>
       </c>
       <c r="F48">
         <v>0.9696502808966706</v>
@@ -2018,16 +2027,16 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.9754201153749685</v>
+      </c>
+      <c r="C49">
         <v>0.8844797901123227</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.9155694881003309</v>
       </c>
-      <c r="D49">
-        <v>0.9754201153749685</v>
-      </c>
       <c r="E49">
-        <v>0.9247496977850385</v>
+        <v>0.9256591010376649</v>
       </c>
       <c r="F49">
         <v>0.9730065916875945</v>
@@ -2041,16 +2050,16 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9900677200902934</v>
+      </c>
+      <c r="C50">
         <v>0.9112076740182011</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.9198825116613835</v>
       </c>
-      <c r="D50">
-        <v>0.9900677200902934</v>
-      </c>
       <c r="E50">
-        <v>0.9400941856442417</v>
+        <v>0.9408827861049627</v>
       </c>
       <c r="F50">
         <v>0.9777371523344186</v>
@@ -2064,16 +2073,16 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9987459242538249</v>
+      </c>
+      <c r="C51">
         <v>0.9121095351315898</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.9235641782236402</v>
       </c>
-      <c r="D51">
-        <v>0.9987459242538249</v>
-      </c>
       <c r="E51">
-        <v>0.9444795757623041</v>
+        <v>0.9453459396535264</v>
       </c>
       <c r="F51">
         <v>0.9853544229642648</v>
@@ -2087,16 +2096,16 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.9784800601956357</v>
+      </c>
+      <c r="C52">
         <v>0.9044847093547593</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0.8998691704746479</v>
       </c>
-      <c r="D52">
-        <v>0.9784800601956357</v>
-      </c>
       <c r="E52">
-        <v>0.9273800473018118</v>
+        <v>0.9281200008102206</v>
       </c>
       <c r="F52">
         <v>0.9747907606433689</v>
@@ -2110,16 +2119,16 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.9925257085527965</v>
+      </c>
+      <c r="C53">
         <v>0.9064524063294251</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>0.9143125775201612</v>
       </c>
-      <c r="D53">
-        <v>0.9925257085527965</v>
-      </c>
       <c r="E53">
-        <v>0.9374504525560807</v>
+        <v>0.9383111855783144</v>
       </c>
       <c r="F53">
         <v>0.9903535512972134</v>
@@ -2133,16 +2142,16 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9775771256583898</v>
+      </c>
+      <c r="C54">
         <v>0.9062884315815364</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>0.8944794401902005</v>
       </c>
-      <c r="D54">
-        <v>0.9775771256583898</v>
-      </c>
       <c r="E54">
-        <v>0.9259167334677572</v>
+        <v>0.9266296204085258</v>
       </c>
       <c r="F54">
         <v>0.9767649687220733</v>
@@ -2156,16 +2165,16 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9655881615249561</v>
+      </c>
+      <c r="C55">
         <v>0.8854636385996557</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>0.8670701022913692</v>
       </c>
-      <c r="D55">
-        <v>0.9655881615249561</v>
-      </c>
       <c r="E55">
-        <v>0.9058348641832703</v>
+        <v>0.9066361094125235</v>
       </c>
       <c r="F55">
         <v>0.9647296811269164</v>
@@ -2179,16 +2188,16 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9624780536744419</v>
+      </c>
+      <c r="C56">
         <v>0.8933344264983192</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>0.866710659827945</v>
       </c>
-      <c r="D56">
-        <v>0.9624780536744419</v>
-      </c>
       <c r="E56">
-        <v>0.9073659804652163</v>
+        <v>0.9080574167369775</v>
       </c>
       <c r="F56">
         <v>0.9670651205963146</v>
@@ -2202,16 +2211,16 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.9837973413594181</v>
+      </c>
+      <c r="C57">
         <v>0.9111256866442567</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>0.8973457921463985</v>
       </c>
-      <c r="D57">
-        <v>0.9837973413594181</v>
-      </c>
       <c r="E57">
-        <v>0.9305599675159668</v>
+        <v>0.9312866840631184</v>
       </c>
       <c r="F57">
         <v>0.9818881721848689</v>
@@ -2225,16 +2234,16 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.980536744419363</v>
+      </c>
+      <c r="C58">
         <v>0.9156349922111995</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>0.8886065247595655</v>
       </c>
-      <c r="D58">
-        <v>0.980536744419363</v>
-      </c>
       <c r="E58">
-        <v>0.9281331761808543</v>
+        <v>0.9287821937029359</v>
       </c>
       <c r="F58">
         <v>0.9823829021329928</v>
@@ -2248,16 +2257,16 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.982141961374467</v>
+      </c>
+      <c r="C59">
         <v>0.9175207018119209</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>0.8993617944919802</v>
       </c>
-      <c r="D59">
-        <v>0.982141961374467</v>
-      </c>
       <c r="E59">
-        <v>0.9328532780519807</v>
+        <v>0.9334994906476062</v>
       </c>
       <c r="F59">
         <v>0.9863752942857905</v>
@@ -2271,16 +2280,16 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.9779784298971658</v>
+      </c>
+      <c r="C60">
         <v>0.9153070427154218</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>0.8879317791717923</v>
       </c>
-      <c r="D60">
-        <v>0.9779784298971658</v>
-      </c>
       <c r="E60">
-        <v>0.9269547635159996</v>
+        <v>0.927581477387817</v>
       </c>
       <c r="F60">
         <v>0.9822462624330348</v>
@@ -2294,16 +2303,16 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.9935791321795836</v>
+      </c>
+      <c r="C61">
         <v>0.9526112978601294</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>0.9056354913080835</v>
       </c>
-      <c r="D61">
-        <v>0.9935791321795836</v>
-      </c>
       <c r="E61">
-        <v>0.9506286670233741</v>
+        <v>0.9510383453665687</v>
       </c>
       <c r="F61">
         <v>0.9912911823417532</v>
@@ -2317,16 +2326,16 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>1.006571356909957</v>
+      </c>
+      <c r="C62">
         <v>1.001721734852833</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>0.922055420777376</v>
       </c>
-      <c r="D62">
-        <v>1.006571356909957</v>
-      </c>
       <c r="E62">
-        <v>0.9770322264867832</v>
+        <v>0.9770807227073544</v>
       </c>
       <c r="F62">
         <v>0.9936391863812625</v>
@@ -2340,16 +2349,16 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>1.000752445447705</v>
+      </c>
+      <c r="C63">
         <v>0.9954906944330573</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>0.9306190483913613</v>
       </c>
-      <c r="D63">
-        <v>1.000752445447705</v>
-      </c>
       <c r="E63">
-        <v>0.9758194290741313</v>
+        <v>0.9758720465842778</v>
       </c>
       <c r="F63">
         <v>0.9962290583954103</v>
@@ -2363,16 +2372,16 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.9966390770002508</v>
+      </c>
+      <c r="C64">
         <v>0.995244732311224</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>0.9187309444282503</v>
       </c>
-      <c r="D64">
-        <v>0.9966390770002508</v>
-      </c>
       <c r="E64">
-        <v>0.9704553160572216</v>
+        <v>0.9704692595041119</v>
       </c>
       <c r="F64">
         <v>0.9970112028848254</v>
@@ -2386,16 +2395,16 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9962377727614747</v>
+      </c>
+      <c r="C65">
         <v>0.9926211363450029</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>0.9194539763556382</v>
       </c>
-      <c r="D65">
-        <v>0.9962377727614747</v>
-      </c>
       <c r="E65">
-        <v>0.9696694635659484</v>
+        <v>0.969705629930113</v>
       </c>
       <c r="F65">
         <v>0.9983728881706143</v>
@@ -2409,16 +2418,16 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9893654376724353</v>
+      </c>
+      <c r="C66">
         <v>0.9840944494547839</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>0.9024750955636354</v>
       </c>
-      <c r="D66">
-        <v>0.9893654376724353</v>
-      </c>
       <c r="E66">
-        <v>0.95889948878253</v>
+        <v>0.9589521986647064</v>
       </c>
       <c r="F66">
         <v>0.9949945893819959</v>
@@ -2432,16 +2441,16 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9704038123902684</v>
+      </c>
+      <c r="C67">
         <v>0.9668771009264573</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>0.8845985083215226</v>
       </c>
-      <c r="D67">
-        <v>0.9704038123902684</v>
-      </c>
       <c r="E67">
-        <v>0.9408889801498865</v>
+        <v>0.9409242472645247</v>
       </c>
       <c r="F67">
         <v>0.9779036328883906</v>
@@ -2455,16 +2464,16 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9554552294958616</v>
+      </c>
+      <c r="C68">
         <v>0.9604000983848487</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>0.8888127903697305</v>
       </c>
-      <c r="D68">
-        <v>0.9554552294958616</v>
-      </c>
       <c r="E68">
-        <v>0.9351444800064941</v>
+        <v>0.9350950313176041</v>
       </c>
       <c r="F68">
         <v>0.9752902023052845</v>
@@ -2478,16 +2487,16 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9788813644344119</v>
+      </c>
+      <c r="C69">
         <v>0.9643354923341805</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>0.9093637162930635</v>
       </c>
-      <c r="D69">
-        <v>0.9788813644344119</v>
-      </c>
       <c r="E69">
-        <v>0.9509949440336882</v>
+        <v>0.9511404027546906</v>
       </c>
       <c r="F69">
         <v>0.9858805643376666</v>
@@ -2501,16 +2510,16 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.9742162026586405</v>
+      </c>
+      <c r="C70">
         <v>0.9583504140362384</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>0.9070130700706168</v>
       </c>
-      <c r="D70">
-        <v>0.9742162026586405</v>
-      </c>
       <c r="E70">
-        <v>0.9466448007729761</v>
+        <v>0.9468034586592001</v>
       </c>
       <c r="F70">
         <v>0.9857627714928752</v>
@@ -2524,16 +2533,16 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.9871081013293203</v>
+      </c>
+      <c r="C71">
         <v>0.9530212347298517</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>0.9331558091380182</v>
       </c>
-      <c r="D71">
-        <v>0.9871081013293203</v>
-      </c>
       <c r="E71">
-        <v>0.9577143102623713</v>
+        <v>0.958055178928366</v>
       </c>
       <c r="F71">
         <v>0.9956777878817863</v>
@@ -2547,16 +2556,16 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>1.011286681715576</v>
+      </c>
+      <c r="C72">
         <v>0.9767975731737313</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>0.9901387663838845</v>
       </c>
-      <c r="D72">
-        <v>1.011286681715576</v>
-      </c>
       <c r="E72">
-        <v>0.9925815727518905</v>
+        <v>0.992926463837309</v>
       </c>
       <c r="F72">
         <v>1.009132871899496</v>
@@ -2570,16 +2579,16 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>1.00551793328317</v>
+      </c>
+      <c r="C73">
         <v>0.9663031893088465</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>0.9833482079172127</v>
       </c>
-      <c r="D73">
-        <v>1.00551793328317</v>
-      </c>
       <c r="E73">
-        <v>0.9848689109611342</v>
+        <v>0.9852610584008775</v>
       </c>
       <c r="F73">
         <v>1.009648019274051</v>
@@ -2593,16 +2602,16 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>1.001906195134186</v>
+      </c>
+      <c r="C74">
         <v>0.9699106337624006</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>0.9679485716639767</v>
       </c>
-      <c r="D74">
-        <v>1.001906195134186</v>
-      </c>
       <c r="E74">
-        <v>0.97982168852261</v>
+        <v>0.9801416441363279</v>
       </c>
       <c r="F74">
         <v>1.008347586267553</v>
@@ -2616,16 +2625,16 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>1.001755706044645</v>
+      </c>
+      <c r="C75">
         <v>0.9802410428793966</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>0.9633439353149903</v>
       </c>
-      <c r="D75">
-        <v>1.001755706044645</v>
-      </c>
       <c r="E75">
-        <v>0.9817648362276747</v>
+        <v>0.9819799828593272</v>
       </c>
       <c r="F75">
         <v>1.012306996423809</v>
@@ -2639,16 +2648,16 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>1.002758966641585</v>
+      </c>
+      <c r="C76">
         <v>0.9842584242026727</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>0.9602141415745229</v>
       </c>
-      <c r="D76">
-        <v>1.002758966641585</v>
-      </c>
       <c r="E76">
-        <v>0.9824289899402245</v>
+        <v>0.9826139953646136</v>
       </c>
       <c r="F76">
         <v>1.015022514139068</v>
@@ -2662,16 +2671,16 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>0.9956358164033107</v>
+      </c>
+      <c r="C77">
         <v>0.9868820201688939</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>0.956644908776892</v>
       </c>
-      <c r="D77">
-        <v>0.9956358164033107</v>
-      </c>
       <c r="E77">
-        <v>0.9797925261668909</v>
+        <v>0.9798800641292351</v>
       </c>
       <c r="F77">
         <v>1.011864095327393</v>
@@ -2685,16 +2694,16 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>0.9970403812390268</v>
+      </c>
+      <c r="C78">
         <v>0.9753218004427318</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>0.946512427958825</v>
       </c>
-      <c r="D78">
-        <v>0.9970403812390268</v>
-      </c>
       <c r="E78">
-        <v>0.9729818391858198</v>
+        <v>0.9731990249937829</v>
       </c>
       <c r="F78">
         <v>1.012434212696184</v>
@@ -2708,16 +2717,16 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>1.006069726611487</v>
+      </c>
+      <c r="C79">
         <v>0.995244732311224</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>0.9559711761059172</v>
       </c>
-      <c r="D79">
-        <v>1.006069726611487</v>
-      </c>
       <c r="E79">
-        <v>0.9858567068825597</v>
+        <v>0.9859649568255624</v>
       </c>
       <c r="F79">
         <v>1.019259915409032</v>
@@ -2731,16 +2740,16 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.007424128417356</v>
+      </c>
+      <c r="C80">
         <v>1.00278757071411</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>0.9478260618797069</v>
       </c>
-      <c r="D80">
-        <v>1.007424128417356</v>
-      </c>
       <c r="E80">
-        <v>0.9861803368408283</v>
+        <v>0.9862267024178608</v>
       </c>
       <c r="F80">
         <v>1.019603870515823</v>
@@ -2754,16 +2763,16 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.001555053925257</v>
+      </c>
+      <c r="C81">
         <v>1.008198737394441</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>0.9451254231117322</v>
       </c>
-      <c r="D81">
-        <v>1.001555053925257</v>
-      </c>
       <c r="E81">
-        <v>0.9851921281363165</v>
+        <v>0.9851256913016246</v>
       </c>
       <c r="F81">
         <v>1.018626975189686</v>
@@ -2777,16 +2786,16 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>0.9905693503887634</v>
+      </c>
+      <c r="C82">
         <v>0.994260883823891</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>0.9395269962168035</v>
       </c>
-      <c r="D82">
-        <v>0.9905693503887634</v>
-      </c>
       <c r="E82">
-        <v>0.9749804948799601</v>
+        <v>0.9749435795456087</v>
       </c>
       <c r="F82">
         <v>1.01919866312974</v>
@@ -2800,16 +2809,16 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>0.9713569099573613</v>
+      </c>
+      <c r="C83">
         <v>0.9480200049192425</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>0.9148904286786633</v>
       </c>
-      <c r="D83">
-        <v>0.9713569099573613</v>
-      </c>
       <c r="E83">
-        <v>0.9447884234224306</v>
+        <v>0.9450217924728117</v>
       </c>
       <c r="F83">
         <v>1.012145227583629</v>
@@ -2823,16 +2832,16 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>0.9787810383747179</v>
+      </c>
+      <c r="C84">
         <v>0.927687136181028</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>0.9261477953097257</v>
       </c>
-      <c r="D84">
-        <v>0.9787810383747179</v>
-      </c>
       <c r="E84">
-        <v>0.9440401414174159</v>
+        <v>0.9445510804393529</v>
       </c>
       <c r="F84">
         <v>1.017100379921189</v>
@@ -2846,16 +2855,16 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>0.9783797341359417</v>
+      </c>
+      <c r="C85">
         <v>0.9358858735754694</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>0.9211163754052218</v>
       </c>
-      <c r="D85">
-        <v>0.9783797341359417</v>
-      </c>
       <c r="E85">
-        <v>0.9450349131642437</v>
+        <v>0.9454598517698483</v>
       </c>
       <c r="F85">
         <v>1.013967090249737</v>
@@ -2869,16 +2878,16 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>0.9870077752696262</v>
+      </c>
+      <c r="C86">
         <v>0.9504796261375748</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>0.9481265168354578</v>
       </c>
-      <c r="D86">
-        <v>0.9870077752696262</v>
-      </c>
       <c r="E86">
-        <v>0.9617573892814532</v>
+        <v>0.9621226707727737</v>
       </c>
       <c r="F86">
         <v>1.022763859898761</v>
@@ -2892,16 +2901,16 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>0.9671933784800602</v>
+      </c>
+      <c r="C87">
         <v>0.9430187751086332</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>0.9188219520234223</v>
       </c>
-      <c r="D87">
-        <v>0.9671933784800602</v>
-      </c>
       <c r="E87">
-        <v>0.9430114426030844</v>
+        <v>0.9432531886367989</v>
       </c>
       <c r="F87">
         <v>1.011295548529867</v>
@@ -2915,16 +2924,16 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>0.9841484825683471</v>
+      </c>
+      <c r="C88">
         <v>0.9664671640567353</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>0.941196581017322</v>
       </c>
-      <c r="D88">
-        <v>0.9841484825683471</v>
-      </c>
       <c r="E88">
-        <v>0.9639627067625608</v>
+        <v>0.964139519947677</v>
       </c>
       <c r="F88">
         <v>1.024923395386604</v>
@@ -2938,16 +2947,16 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>0.9980938048658139</v>
+      </c>
+      <c r="C89">
         <v>0.9776174469131753</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>0.9729653698165786</v>
       </c>
-      <c r="D89">
-        <v>0.9980938048658139</v>
-      </c>
       <c r="E89">
-        <v>0.9828394595956692</v>
+        <v>0.9830442231751955</v>
       </c>
       <c r="F89">
         <v>1.033143765381782</v>
@@ -2961,16 +2970,16 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.000551793328317</v>
+      </c>
+      <c r="C90">
         <v>0.9699106337624006</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>0.9718008968317666</v>
       </c>
-      <c r="D90">
-        <v>1.000551793328317</v>
-      </c>
       <c r="E90">
-        <v>0.9806460032320439</v>
+        <v>0.9809524148277031</v>
       </c>
       <c r="F90">
         <v>1.036514211314081</v>
@@ -2984,16 +2993,16 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>1.005467770253323</v>
+      </c>
+      <c r="C91">
         <v>0.9844223989505617</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>0.9950432856885475</v>
       </c>
-      <c r="D91">
-        <v>1.005467770253323</v>
-      </c>
       <c r="E91">
-        <v>0.9948722641040084</v>
+        <v>0.9950827178170361</v>
       </c>
       <c r="F91">
         <v>1.034125372421711</v>
@@ -3007,16 +3016,16 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.008577878103837</v>
+      </c>
+      <c r="C92">
         <v>0.9827826514716734</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>0.9874265207810666</v>
       </c>
-      <c r="D92">
-        <v>1.008577878103837</v>
-      </c>
       <c r="E92">
-        <v>0.9928275531323875</v>
+        <v>0.9930855053987091</v>
       </c>
       <c r="F92">
         <v>1.028521574152166</v>
@@ -3030,16 +3039,16 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>1.006471030850263</v>
+      </c>
+      <c r="C93">
         <v>0.9732721160941216</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>0.9840533410089387</v>
       </c>
-      <c r="D93">
-        <v>1.006471030850263</v>
-      </c>
       <c r="E93">
-        <v>0.987785562185538</v>
+        <v>0.9881175513330995</v>
       </c>
       <c r="F93">
         <v>1.025246933066964</v>
@@ -3053,16 +3062,16 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.005618259342864</v>
+      </c>
+      <c r="C94">
         <v>0.9822907272280068</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>0.9663363179542493</v>
       </c>
-      <c r="D94">
-        <v>1.005618259342864</v>
-      </c>
       <c r="E94">
-        <v>0.9847238577655699</v>
+        <v>0.9849571330867185</v>
       </c>
       <c r="F94">
         <v>1.027800681942043</v>
@@ -3076,16 +3085,16 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.019262603461249</v>
+      </c>
+      <c r="C95">
         <v>1.014429777814217</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>0.9761983142371308</v>
       </c>
-      <c r="D95">
-        <v>1.019262603461249</v>
-      </c>
       <c r="E95">
-        <v>1.003408227297299</v>
+        <v>1.003456555553769</v>
       </c>
       <c r="F95">
         <v>1.0396663478407</v>
@@ -3099,16 +3108,16 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.02242287434161</v>
+      </c>
+      <c r="C96">
         <v>1.002459621218332</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>0.9814842265080732</v>
       </c>
-      <c r="D96">
-        <v>1.02242287434161</v>
-      </c>
       <c r="E96">
-        <v>1.002125614494628</v>
+        <v>1.002325247025861</v>
       </c>
       <c r="F96">
         <v>1.041007615700059</v>
@@ -3122,16 +3131,16 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.031452219714071</v>
+      </c>
+      <c r="C97">
         <v>1.044929080921538</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>0.9825158286422675</v>
       </c>
-      <c r="D97">
-        <v>1.031452219714071</v>
-      </c>
       <c r="E97">
-        <v>1.019885343470915</v>
+        <v>1.01975057485884</v>
       </c>
       <c r="F97">
         <v>1.049991283329486</v>
@@ -3145,16 +3154,16 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.026536242789065</v>
+      </c>
+      <c r="C98">
         <v>1.034762646552431</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>0.994532847122148</v>
       </c>
-      <c r="D98">
-        <v>1.026536242789065</v>
-      </c>
       <c r="E98">
-        <v>1.018772099498527</v>
+        <v>1.018689835460893</v>
       </c>
       <c r="F98">
         <v>1.047283618470546</v>
@@ -3168,16 +3177,16 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.023727113117632</v>
+      </c>
+      <c r="C99">
         <v>1.060506681970977</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>0.999895026069678</v>
       </c>
-      <c r="D99">
-        <v>1.023727113117632</v>
-      </c>
       <c r="E99">
-        <v>1.028367577801944</v>
+        <v>1.027999782113411</v>
       </c>
       <c r="F99">
         <v>1.0568358328975</v>
@@ -3191,16 +3200,16 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.028643090042639</v>
+      </c>
+      <c r="C100">
         <v>1.072230876445027</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>1.008173285229875</v>
       </c>
-      <c r="D100">
-        <v>1.028643090042639</v>
-      </c>
       <c r="E100">
-        <v>1.036707901831239</v>
+        <v>1.036272023967215</v>
       </c>
       <c r="F100">
         <v>1.058527338148705</v>
@@ -3214,16 +3223,16 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.020466516177577</v>
+      </c>
+      <c r="C101">
         <v>1.059604820857588</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>1.003808007078691</v>
       </c>
-      <c r="D101">
-        <v>1.020466516177577</v>
-      </c>
       <c r="E101">
-        <v>1.028276231766148</v>
+        <v>1.027884848719348</v>
       </c>
       <c r="F101">
         <v>1.049366195966459</v>
@@ -3237,16 +3246,16 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.0159016804615</v>
+      </c>
+      <c r="C102">
         <v>1.043617282938427</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>0.9921527309792012</v>
       </c>
-      <c r="D102">
-        <v>1.0159016804615</v>
-      </c>
       <c r="E102">
-        <v>1.017487831974497</v>
+        <v>1.017210675949727</v>
       </c>
       <c r="F102">
         <v>1.047214513334935</v>
@@ -3260,16 +3269,16 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.016955104088287</v>
+      </c>
+      <c r="C103">
         <v>1.066655735016807</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>1.005425504122434</v>
       </c>
-      <c r="D103">
-        <v>1.016955104088287</v>
-      </c>
       <c r="E103">
-        <v>1.030048550615253</v>
+        <v>1.029551544305968</v>
       </c>
       <c r="F103">
         <v>1.051192770346358</v>
@@ -3283,16 +3292,16 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.016102332580888</v>
+      </c>
+      <c r="C104">
         <v>1.09067803558252</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>1.003131676574046</v>
       </c>
-      <c r="D104">
-        <v>1.016102332580888</v>
-      </c>
       <c r="E104">
-        <v>1.037177755119185</v>
+        <v>1.036431998089169</v>
       </c>
       <c r="F104">
         <v>1.055659475020849</v>
@@ -3306,16 +3315,16 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.018008527715074</v>
+      </c>
+      <c r="C105">
         <v>1.083955070919078</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>1.018285150211927</v>
       </c>
-      <c r="D105">
-        <v>1.018008527715074</v>
-      </c>
       <c r="E105">
-        <v>1.040521637828397</v>
+        <v>1.039862172396357</v>
       </c>
       <c r="F105">
         <v>1.049857784772055</v>
@@ -3329,16 +3338,16 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.014095811387008</v>
+      </c>
+      <c r="C106">
         <v>1.097974911863573</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>1.022705280786912</v>
       </c>
-      <c r="D106">
-        <v>1.014095811387008</v>
-      </c>
       <c r="E106">
-        <v>1.045455830451008</v>
+        <v>1.044617039446243</v>
       </c>
       <c r="F106">
         <v>1.051167641206136</v>
@@ -3352,16 +3361,16 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.020617005267118</v>
+      </c>
+      <c r="C107">
         <v>1.113388538165123</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>1.046947680690444</v>
       </c>
-      <c r="D107">
-        <v>1.020617005267118</v>
-      </c>
       <c r="E107">
-        <v>1.060848449342137</v>
+        <v>1.059920734013157</v>
       </c>
       <c r="F107">
         <v>1.062591976579641</v>
@@ -3375,16 +3384,16 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.018560321043391</v>
+      </c>
+      <c r="C108">
         <v>1.095351315897352</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>1.068007853513355</v>
       </c>
-      <c r="D108">
-        <v>1.018560321043391</v>
-      </c>
       <c r="E108">
-        <v>1.060986945008826</v>
+        <v>1.060219035060286</v>
       </c>
       <c r="F108">
         <v>1.056353667519487</v>
@@ -3398,16 +3407,16 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.012340105342363</v>
+      </c>
+      <c r="C109">
         <v>1.110027055833402</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>1.079437916500216</v>
       </c>
-      <c r="D109">
-        <v>1.012340105342363</v>
-      </c>
       <c r="E109">
-        <v>1.067695946191408</v>
+        <v>1.066719076686497</v>
       </c>
       <c r="F109">
         <v>1.046575290830534</v>
@@ -3421,16 +3430,16 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>0.9926761976423376</v>
+      </c>
+      <c r="C110">
         <v>1.074936459785193</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>1.017760173310303</v>
       </c>
-      <c r="D110">
-        <v>0.9926761976423376</v>
-      </c>
       <c r="E110">
-        <v>1.028922398741337</v>
+        <v>1.028099796119908</v>
       </c>
       <c r="F110">
         <v>1.031282638434078</v>
@@ -3444,16 +3453,16 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>0.9942312515675946</v>
+      </c>
+      <c r="C111">
         <v>1.162662949905714</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>1.035003389636691</v>
       </c>
-      <c r="D111">
-        <v>0.9942312515675946</v>
-      </c>
       <c r="E111">
-        <v>1.064952834565357</v>
+        <v>1.063268517581976</v>
       </c>
       <c r="F111">
         <v>1.03911664789834</v>
@@ -3467,16 +3476,16 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.007875595685979</v>
+      </c>
+      <c r="C112">
         <v>1.171435598917767</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>1.087337773777855</v>
       </c>
-      <c r="D112">
-        <v>1.007875595685979</v>
-      </c>
       <c r="E112">
-        <v>1.089708515555106</v>
+        <v>1.088072915522788</v>
       </c>
       <c r="F112">
         <v>1.045648653784841</v>
@@ -3490,16 +3499,16 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.003812390268372</v>
+      </c>
+      <c r="C113">
         <v>1.177830614085431</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>1.096805030426054</v>
       </c>
-      <c r="D113">
-        <v>1.003812390268372</v>
-      </c>
       <c r="E113">
-        <v>1.093666157618207</v>
+        <v>1.091925975380037</v>
       </c>
       <c r="F113">
         <v>1.053410416970965</v>
@@ -3513,16 +3522,16 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.009129671432154</v>
+      </c>
+      <c r="C114">
         <v>1.176026891858654</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>1.109313313553174</v>
       </c>
-      <c r="D114">
-        <v>1.009129671432154</v>
-      </c>
       <c r="E114">
-        <v>1.098935328277101</v>
+        <v>1.097266356072836</v>
       </c>
       <c r="F114">
         <v>1.058532049862497</v>
@@ -3536,16 +3545,16 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.025532982192124</v>
+      </c>
+      <c r="C115">
         <v>1.231778306140854</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>1.136402021576963</v>
       </c>
-      <c r="D115">
-        <v>1.025532982192124</v>
-      </c>
       <c r="E115">
-        <v>1.132243175331689</v>
+        <v>1.130180722092202</v>
       </c>
       <c r="F115">
         <v>1.066410035322148</v>
@@ -3559,16 +3568,16 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.019663907700025</v>
+      </c>
+      <c r="C116">
         <v>1.212265311142084</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>1.13341801635546</v>
       </c>
-      <c r="D116">
-        <v>1.019663907700025</v>
-      </c>
       <c r="E116">
-        <v>1.122687240726619</v>
+        <v>1.120761226692198</v>
       </c>
       <c r="F116">
         <v>1.060900471328436</v>
@@ -3582,16 +3591,16 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.022222222222222</v>
+      </c>
+      <c r="C117">
         <v>1.227678937443634</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>1.130231332440926</v>
       </c>
-      <c r="D117">
-        <v>1.022222222222222</v>
-      </c>
       <c r="E117">
-        <v>1.127720511769674</v>
+        <v>1.12566594461746</v>
       </c>
       <c r="F117">
         <v>1.070094595507224</v>
@@ -3605,22 +3614,229 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.227678937443634</v>
+        <v>1.030900426385754</v>
       </c>
       <c r="C118">
-        <v>1.130231332440926</v>
+        <v>1.248913667295237</v>
       </c>
       <c r="D118">
-        <v>1.022222222222222</v>
+        <v>1.145808193383882</v>
       </c>
       <c r="E118">
-        <v>1.127720511769674</v>
+        <v>1.140764358995266</v>
       </c>
       <c r="F118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="G118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.017557060446451</v>
+      </c>
+      <c r="C119">
+        <v>1.23579568746413</v>
+      </c>
+      <c r="D119">
+        <v>1.11835743314633</v>
+      </c>
+      <c r="E119">
+        <v>1.122839930353245</v>
+      </c>
+      <c r="F119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="G119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.019162277401555</v>
+      </c>
+      <c r="C120">
+        <v>1.295564483069607</v>
+      </c>
+      <c r="D120">
+        <v>1.120925022313663</v>
+      </c>
+      <c r="E120">
+        <v>1.143956711093008</v>
+      </c>
+      <c r="F120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="G120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.014246300476549</v>
+      </c>
+      <c r="C121">
+        <v>1.264245306222842</v>
+      </c>
+      <c r="D121">
+        <v>1.094363448108445</v>
+      </c>
+      <c r="E121">
+        <v>1.123184631091351</v>
+      </c>
+      <c r="F121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="G121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9962377727614747</v>
+      </c>
+      <c r="C122">
+        <v>1.24358448798885</v>
+      </c>
+      <c r="D122">
+        <v>1.081114984968374</v>
+      </c>
+      <c r="E122">
+        <v>1.105871668814785</v>
+      </c>
+      <c r="F122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="G122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.9941810885377477</v>
+      </c>
+      <c r="C123">
+        <v>1.296466344182996</v>
+      </c>
+      <c r="D123">
+        <v>1.10128671059238</v>
+      </c>
+      <c r="E123">
+        <v>1.129280078178708</v>
+      </c>
+      <c r="F123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="G123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.9964885879107097</v>
+      </c>
+      <c r="C124">
+        <v>1.269656472903173</v>
+      </c>
+      <c r="D124">
+        <v>1.102433177491516</v>
+      </c>
+      <c r="E124">
+        <v>1.121595704519889</v>
+      </c>
+      <c r="F124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="G124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.008176573865061</v>
+      </c>
+      <c r="C125">
+        <v>1.307042715421825</v>
+      </c>
+      <c r="D125">
+        <v>1.130131887844656</v>
+      </c>
+      <c r="E125">
+        <v>1.14704765419206</v>
+      </c>
+      <c r="F125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="G125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.9972410333584149</v>
+      </c>
+      <c r="C126">
+        <v>1.345740755923588</v>
+      </c>
+      <c r="D126">
+        <v>1.12227912523981</v>
+      </c>
+      <c r="E126">
+        <v>1.153508512125782</v>
+      </c>
+      <c r="F126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="G126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.000953097567093</v>
+      </c>
+      <c r="C127">
+        <v>1.325243912437485</v>
+      </c>
+      <c r="D127">
+        <v>1.145460131338605</v>
+      </c>
+      <c r="E127">
+        <v>1.155656387618921</v>
+      </c>
+      <c r="F127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="G127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -3732,18 +3948,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -3775,131 +3991,119 @@
       <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="J2">
-        <v>81.61</v>
+        <v>2.928299903869629</v>
       </c>
       <c r="K2">
-        <v>8.33</v>
+        <v>33.26729965209961</v>
       </c>
       <c r="L2">
-        <v>20.06</v>
-      </c>
-      <c r="M2">
-        <v>59.93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>-23.3442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="J3">
-        <v>36.2</v>
+        <v>9.079999923706055</v>
       </c>
       <c r="K3">
-        <v>3.04</v>
+        <v>87.84709930419922</v>
       </c>
       <c r="L3">
-        <v>-5.91</v>
-      </c>
-      <c r="M3">
-        <v>-12.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>59.9349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4">
         <v>0.33</v>
       </c>
       <c r="J4">
-        <v>34.32</v>
+        <v>3.07480001449585</v>
       </c>
       <c r="K4">
-        <v>3.01</v>
+        <v>36.68439865112305</v>
       </c>
       <c r="L4">
-        <v>-5.03</v>
-      </c>
-      <c r="M4">
-        <v>-23.34</v>
+        <v>-12.2529</v>
       </c>
     </row>
   </sheetData>
@@ -3917,19 +4121,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3937,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>103</v>
@@ -3957,10 +4161,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>104</v>
@@ -3977,10 +4181,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>105</v>
@@ -3997,10 +4201,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
@@ -4017,10 +4221,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>107</v>
@@ -4037,10 +4241,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
         <v>108</v>
@@ -4057,10 +4261,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>109</v>
@@ -4077,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
@@ -4097,7 +4301,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
@@ -4117,7 +4321,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -4137,7 +4341,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>93</v>
@@ -4157,7 +4361,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
         <v>94</v>
@@ -4177,7 +4381,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
         <v>95</v>
@@ -4197,7 +4401,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>96</v>
@@ -4217,7 +4421,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>97</v>
@@ -4237,7 +4441,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
@@ -4246,7 +4450,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
         <v>157</v>
@@ -4257,7 +4461,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>99</v>
@@ -4266,7 +4470,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
         <v>158</v>
@@ -4277,7 +4481,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>100</v>
@@ -4286,7 +4490,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F19" t="s">
         <v>159</v>
@@ -4297,7 +4501,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>101</v>
@@ -4306,7 +4510,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
         <v>160</v>
@@ -4317,7 +4521,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>102</v>
@@ -4339,7 +4543,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4355,46 +4559,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4402,10 +4606,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4413,10 +4617,21 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
